--- a/test_data/test_data_1.xlsx
+++ b/test_data/test_data_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qlrqo\Documents\전공 과목\전프 (CS408)\ChatSummarizer\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehgus\Desktop\ChatSummarizer\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1484,16 +1484,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="63.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>364</v>
       </c>
@@ -1504,18 +1504,18 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1526,29 +1526,29 @@
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1668,31 +1668,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1700,15 +1700,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1780,15 +1780,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1884,31 +1884,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2015,17 +2015,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="91.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>364</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -2047,18 +2047,18 @@
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>62</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -2312,15 +2312,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>94</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -2384,15 +2384,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>103</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -2424,15 +2424,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>108</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -2528,15 +2528,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>121</v>
       </c>
       <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -2584,15 +2584,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>128</v>
       </c>
       <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -2616,15 +2616,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>132</v>
       </c>
       <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -2632,12 +2632,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>134</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2651,16 +2651,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="83.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>364</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -2795,15 +2795,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>149</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>150</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>155</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>156</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>157</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>165</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>166</v>
       </c>
@@ -2939,15 +2939,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>167</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -2955,39 +2955,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>169</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>170</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>171</v>
       </c>
       <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>172</v>
       </c>
       <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>173</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>175</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>176</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>177</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>179</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>180</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>181</v>
       </c>
@@ -3059,23 +3059,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>182</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>183</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>184</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>185</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>186</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>187</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>188</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>189</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>190</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>192</v>
       </c>
@@ -3147,23 +3147,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>193</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>194</v>
       </c>
       <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>195</v>
       </c>
@@ -3171,23 +3171,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>196</v>
       </c>
       <c r="B63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>197</v>
       </c>
       <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>198</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>200</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>201</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>205</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>206</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>207</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>209</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>210</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>211</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>213</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>214</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>215</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>213</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>216</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>217</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>219</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>220</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>221</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>222</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>223</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>223</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>223</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>224</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>225</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>226</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>227</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>228</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>229</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>230</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>231</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>232</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>233</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>234</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>235</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>236</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>237</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>238</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>239</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>240</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>241</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>242</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>243</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>244</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>245</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>246</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>247</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>248</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>249</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>250</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>251</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>252</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>253</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>254</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>255</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>256</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>257</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>258</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>259</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>260</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>263</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>265</v>
       </c>
@@ -3755,23 +3755,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>266</v>
       </c>
       <c r="B136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>267</v>
       </c>
       <c r="B137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>268</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>269</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>270</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>271</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>272</v>
       </c>
@@ -3821,16 +3821,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="143.25" customWidth="1"/>
+    <col min="1" max="1" width="143.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>364</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>355</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>273</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>274</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>275</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>276</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>277</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>278</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>279</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>280</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>282</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>284</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>285</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>286</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>287</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>288</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>289</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>290</v>
       </c>
@@ -4015,16 +4015,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="105.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>364</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>291</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>292</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>293</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>295</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>296</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>298</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>299</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>300</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>301</v>
       </c>
@@ -4135,15 +4135,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>302</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>303</v>
       </c>
@@ -4151,15 +4151,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>304</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>305</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>306</v>
       </c>
@@ -4175,15 +4175,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>307</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>308</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>310</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>311</v>
       </c>
@@ -4215,15 +4215,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>312</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>313</v>
       </c>
@@ -4231,15 +4231,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>314</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>315</v>
       </c>
@@ -4247,15 +4247,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>316</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>317</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>318</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>319</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>320</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>321</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>322</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>323</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>324</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>325</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>326</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>327</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>328</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>329</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>330</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>331</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>332</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>333</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>334</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>335</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>336</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>337</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>338</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>339</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>340</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>341</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>342</v>
       </c>
